--- a/mwConfigParser_result_20180528.xlsx
+++ b/mwConfigParser_result_20180528.xlsx
@@ -101,7 +101,9 @@
 error_log logs/error.log notice; 
 error_log logs/error.log info; 
 http
-	log_format main '$remote_addr - $remote_user [$time_local] "$request" ' /split/'$status $body_bytes_sent "$http_referer" '/split/'"$http_user_agent" "$http_x_forwarded_for"';
+	log_format main '$remote_addr - $remote_user [$time_local] "$request" ' /split/
+'$status $body_bytes_sent "$http_referer" '/split/
+'"$http_user_agent" "$http_x_forwarded_for"';
 	access_log logs/access.log main; 
 server(localhost; )
 	access_log logs/host.access.log main; </t>
@@ -260,7 +262,7 @@
   <cols>
     <col min="1" max="1" width="41.6484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.94921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="161.63671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="74.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.75390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.75390625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.75390625" customWidth="true" bestFit="true"/>
